--- a/medicine/Psychotrope/Tétrahydrocannabivarine/Tétrahydrocannabivarine.xlsx
+++ b/medicine/Psychotrope/Tétrahydrocannabivarine/Tétrahydrocannabivarine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9trahydrocannabivarine</t>
+          <t>Tétrahydrocannabivarine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La tétrahydrocannabivarine ou THCV est l'un des nombreux cannabinoïdes psychoactifs présents dans le cannabis.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9trahydrocannabivarine</t>
+          <t>Tétrahydrocannabivarine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Effets psychotropes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La THCV est un antagoniste du récepteur de type CB1, et est donc censé annuler les effets du THC[2]. Cependant la THCV est elle-même psychoactive, c'est un antipsychotique (ou neuroleptique). Ses effets sont différents de ceux du THC : bien qu'elle agisse aussi rapidement que le THC, elle aura parfois des effets opposés. Par exemple elle supprime la sensation de faim (alors que le THC l'augmenterait) et apporte une sensation d'énergie voire d’excitation, parfois d'euphorie. Elle est sans danger pour l'homme à court terme sur le plan physique (tout comme le THC) mais son action psychodysleptique plus puissante que celle du THC peut rendre les effets sur la conscience plus intenses (et donc les bad-trip plus éprouvants). Elle pourrait posséder de nombreuses propriétés intéressantes dans la lutte contre l'obésité ou l'épilepsie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La THCV est un antagoniste du récepteur de type CB1, et est donc censé annuler les effets du THC. Cependant la THCV est elle-même psychoactive, c'est un antipsychotique (ou neuroleptique). Ses effets sont différents de ceux du THC : bien qu'elle agisse aussi rapidement que le THC, elle aura parfois des effets opposés. Par exemple elle supprime la sensation de faim (alors que le THC l'augmenterait) et apporte une sensation d'énergie voire d’excitation, parfois d'euphorie. Elle est sans danger pour l'homme à court terme sur le plan physique (tout comme le THC) mais son action psychodysleptique plus puissante que celle du THC peut rendre les effets sur la conscience plus intenses (et donc les bad-trip plus éprouvants). Elle pourrait posséder de nombreuses propriétés intéressantes dans la lutte contre l'obésité ou l'épilepsie.
 </t>
         </is>
       </c>
